--- a/Data/Input/Orders.xlsx
+++ b/Data/Input/Orders.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Work Area\UiPath\UpstoxOnlineOrders\Data\Input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C2E839-597C-4E76-8D23-2E1BAD84E4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="orders" sheetId="1" r:id="rId1"/>
+    <sheet name="Type" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +25,50 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>Entry</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>TGR</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Order Type</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +76,66 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6FA8DC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA4335"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF34A853"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAD1DC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -45,12 +143,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,10 +495,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC54E03-D08F-4100-A344-4F44E9855051}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Data/Input/Orders.xlsx
+++ b/Data/Input/Orders.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Work Area\UiPath\UpstoxOnlineOrders\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C2E839-597C-4E76-8D23-2E1BAD84E4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94494C06-E4AC-4F44-AC74-A54C2AD497A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Type" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,29 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Equity</t>
   </si>
   <si>
-    <t>Entry</t>
-  </si>
-  <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>SL</t>
-  </si>
-  <si>
-    <t>TG</t>
-  </si>
-  <si>
-    <t>TGR</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Order Type</t>
   </si>
   <si>
@@ -62,13 +45,40 @@
   </si>
   <si>
     <t>Complexity</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>Intraday</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <t>ITC</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Reliance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,15 +93,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,42 +103,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6FA8DC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEA4335"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF34A853"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEAD1DC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC9DAF8"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -144,36 +117,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -183,6 +126,141 @@
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -190,30 +268,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -496,78 +569,313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" customWidth="1"/>
+    <col min="1" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="8" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="6" t="s">
+      <c r="C3" s="3">
         <v>5</v>
       </c>
-      <c r="N1" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data" error="Quantity shuld be a number, Please enter the quantity of shares between 1 to 1,00,000." sqref="C2:C20" xr:uid="{B2ED265F-8984-45DD-AE6E-43A65D52B14E}">
+      <formula1>1</formula1>
+      <formula2>100000</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data" error="Please choose Type as Buy or Sell" xr:uid="{6BA980CE-8BC1-4BA7-B0E9-3BDB50087A1C}">
+          <x14:formula1>
+            <xm:f>Type!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B20</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data" error="Please choose the product as Intraday or Delivery" xr:uid="{95D63FDB-C526-4FF5-B8AA-5D9D8287AC50}">
+          <x14:formula1>
+            <xm:f>Type!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D20</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data" error="Please choose Complexity as Simple" xr:uid="{6A62E2B0-C30F-4ED3-9810-213F9248AB33}">
+          <x14:formula1>
+            <xm:f>Type!$C$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E20</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data" error="Please choose Order Type as Market" xr:uid="{F88EB897-855D-425C-83A3-566B68B8F0AE}">
+          <x14:formula1>
+            <xm:f>Type!$D$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F20</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC54E03-D08F-4100-A344-4F44E9855051}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Input/Orders.xlsx
+++ b/Data/Input/Orders.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Work Area\UiPath\UpstoxOnlineOrders\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94494C06-E4AC-4F44-AC74-A54C2AD497A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970C9635-5175-42B4-BF62-2E4D5C008F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Type" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,51 +26,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Equity</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+  <si>
     <t>Order Type</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Complexity</t>
+    <t>Status</t>
   </si>
   <si>
     <t>Buy</t>
   </si>
   <si>
+    <t>Intraday</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
     <t>Sell</t>
   </si>
   <si>
-    <t>Intraday</t>
-  </si>
-  <si>
     <t>Delivery</t>
-  </si>
-  <si>
-    <t>Simple</t>
-  </si>
-  <si>
-    <t>Market</t>
-  </si>
-  <si>
-    <t>ITC</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Reliance</t>
   </si>
 </sst>
 </file>
@@ -268,26 +261,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,13 +568,13 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" customWidth="1"/>
+    <col min="1" max="6" width="18" style="8" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -586,203 +582,181 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>1</v>
-      </c>
       <c r="G1" s="11" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="5"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="5"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="5"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="5"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="5"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="5"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="5"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="5"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="5"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="5"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="5"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="5"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="5"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data" error="Quantity shuld be a number, Please enter the quantity of shares between 1 to 1,00,000." sqref="C2:C20" xr:uid="{B2ED265F-8984-45DD-AE6E-43A65D52B14E}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data" error="Quantity shuld be a number, Please enter the quantity of shares between 1 to 1,00,000." sqref="C2:C20" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
       <formula2>100000</formula2>
     </dataValidation>
@@ -826,56 +800,57 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C7" sqref="C7 C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="11.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
+      <c r="B3" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Input/Orders.xlsx
+++ b/Data/Input/Orders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Work Area\UiPath\UpstoxOnlineOrders\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EDD10B-2043-4ADA-A9A9-E20BF4C5EF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83166955-270D-41BE-A74A-DC93D02D3B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -53,31 +53,31 @@
     <x:t>ITC</x:t>
   </x:si>
   <x:si>
+    <x:t>Sell</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Intraday</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Simple</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Market</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Success</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BPCL</x:t>
+  </x:si>
+  <x:si>
     <x:t>Buy</x:t>
   </x:si>
   <x:si>
-    <x:t>Intraday</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Simple</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Market</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Success</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BPCL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sell</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ACC</x:t>
-  </x:si>
-  <x:si>
     <x:t>Delivery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RELIANCE</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -281,7 +281,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="23">
+  <x:cellStyleXfs count="18">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
@@ -314,21 +314,6 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -679,7 +664,7 @@
   <x:dimension ref="A1:G20"/>
   <x:sheetViews>
     <x:sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="G13" sqref="G13 G13:G13"/>
+      <x:selection activeCell="G8" sqref="G8 G8:G8"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,7 +730,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E3" s="2" t="s">
         <x:v>10</x:v>
@@ -758,27 +743,13 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <x:c r="A4" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B4" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C4" s="2" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D4" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E4" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F4" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G4" s="17" t="s">
-        <x:v>12</x:v>
-      </x:c>
+      <x:c r="A4" s="1" t="s"/>
+      <x:c r="B4" s="2" t="s"/>
+      <x:c r="C4" s="2" t="s"/>
+      <x:c r="D4" s="2" t="s"/>
+      <x:c r="E4" s="2" t="s"/>
+      <x:c r="F4" s="3" t="s"/>
+      <x:c r="G4" s="17" t="s"/>
     </x:row>
     <x:row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="A5" s="1" t="s"/>
@@ -789,7 +760,9 @@
       <x:c r="F5" s="3" t="s"/>
     </x:row>
     <x:row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <x:c r="A6" s="1" t="s"/>
+      <x:c r="A6" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
       <x:c r="B6" s="2" t="s"/>
       <x:c r="C6" s="2" t="s"/>
       <x:c r="D6" s="2" t="s"/>
@@ -811,6 +784,7 @@
       <x:c r="D8" s="2" t="s"/>
       <x:c r="E8" s="2" t="s"/>
       <x:c r="F8" s="3" t="s"/>
+      <x:c r="G8" s="13" t="s"/>
     </x:row>
     <x:row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="A9" s="1" t="s"/>
@@ -851,7 +825,6 @@
       <x:c r="D13" s="2" t="s"/>
       <x:c r="E13" s="2" t="s"/>
       <x:c r="F13" s="3" t="s"/>
-      <x:c r="G13" s="13" t="s"/>
     </x:row>
     <x:row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="A14" s="1" t="s"/>
@@ -908,7 +881,6 @@
       <x:c r="D20" s="5" t="s"/>
       <x:c r="E20" s="5" t="s"/>
       <x:c r="F20" s="6" t="s"/>
-      <x:c r="G20" s="13" t="s"/>
     </x:row>
   </x:sheetData>
   <x:dataValidations count="1">
@@ -991,7 +963,7 @@
     </x:row>
     <x:row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A2" s="13" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B2" s="13" t="s">
         <x:v>9</x:v>
@@ -1005,10 +977,10 @@
     </x:row>
     <x:row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A3" s="13" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B3" s="13" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
